--- a/biology/Zoologie/Heliogomphus/Heliogomphus.xlsx
+++ b/biology/Zoologie/Heliogomphus/Heliogomphus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliogomphus est un genre de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliogomphus est un genre de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (28 décembre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (28 décembre 2023) :
 Heliogomphus aluoiensis Karube, Phan &amp; Ngo, 2020
 Heliogomphus bakeri Laidlaw, 1925
 Heliogomphus bidentatus Kompier &amp; Karube, 2019
@@ -563,9 +577,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heliogomphus Laidlaw (d), 1922[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Heliogomphus Laidlaw (d), 1922,.
 </t>
         </is>
       </c>
@@ -594,7 +610,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) F. F. Laidlaw, « A list of the Dragonflies Recorded from the Indian Empire with special Reference to the Collection of the Indian Museum - Part V - The Subfamily Gomphinae », Records of the Indian Museum, Calcutta, vol. 24, no 3,‎ 1922, p. 367-414 (ISSN 0375-099X, OCLC 1427183, DOI 10.26515/RZSI/V24/I3/1922/162726, lire en ligne)</t>
         </is>
